--- a/ViolinChart.xlsx
+++ b/ViolinChart.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/DWV/ALL_EARTHQUAKES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/DWV/CLEANED_ALL_EARTHQUAKES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0452F5B0-109F-6D41-B825-8B02B7D3566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F3B40E-A958-774B-A99B-E4CB083C498F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{C1D80B54-AE7F-1540-A754-2C8C8A767F1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ViolinChart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -413,7 +413,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
